--- a/data/outputs/management/42.xlsx
+++ b/data/outputs/management/42.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ245"/>
+  <dimension ref="A1:BR245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -899,6 +904,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1134,6 +1140,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1369,6 +1376,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4860288</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1592,6 +1604,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1811,6 +1824,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2038,6 +2052,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2273,6 +2288,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2500,6 +2516,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2719,6 +2736,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2954,6 +2972,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3189,6 +3208,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3408,6 +3428,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3627,6 +3648,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3854,6 +3876,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4073,6 +4096,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4292,6 +4316,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4515,6 +4540,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>3919777</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4722,6 +4752,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4945,6 +4976,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5164,6 +5196,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>3952309</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5387,6 +5424,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>6402711</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5606,6 +5648,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5829,6 +5872,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>3982695</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6052,6 +6100,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6287,6 +6336,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6522,6 +6572,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6745,6 +6796,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6980,6 +7032,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7207,6 +7260,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7410,6 +7464,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7621,6 +7676,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>3868448</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7840,6 +7900,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>4483363</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8059,6 +8124,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8274,6 +8340,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>4750570</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8485,6 +8556,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8692,6 +8764,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8907,6 +8980,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>4511935</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9122,6 +9200,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9325,6 +9404,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>19706597</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9532,6 +9616,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9747,6 +9832,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9954,6 +10040,11 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>4288305</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10161,6 +10252,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>4812022</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10372,6 +10468,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10579,6 +10676,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>33726209</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10786,6 +10888,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>4353234</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10993,6 +11100,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11200,6 +11308,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>4338389</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11399,6 +11512,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11602,6 +11716,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11805,6 +11920,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12012,6 +12128,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12211,6 +12328,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>4371570</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12426,6 +12548,11 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>4405566</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12629,6 +12756,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>4382708</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12836,6 +12968,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13039,6 +13172,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13250,6 +13384,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>4462886</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13461,6 +13600,11 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr">
+        <is>
+          <t>4495544</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13672,6 +13816,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13887,6 +14032,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14102,6 +14248,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14301,6 +14448,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14508,6 +14656,11 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr">
+        <is>
+          <t>4676109</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14715,6 +14868,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14922,6 +15076,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15133,6 +15288,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>4506862</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15340,6 +15500,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15539,6 +15700,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15746,6 +15908,11 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr">
+        <is>
+          <t>4532010</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15961,6 +16128,11 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>4887305</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16172,6 +16344,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16383,6 +16556,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16598,6 +16772,11 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr">
+        <is>
+          <t>4574900</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16805,6 +16984,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17012,6 +17192,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17219,6 +17400,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17305,7 +17487,7 @@
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>Naimi, Babak/0000-0001-5431-2729; Jolma, Ari/0000-0002-3490-7490; </t>
+          <t>Naimi, Babak/0000-0001-5431-2729; Jolma, Ari/0000-0002-3490-7490;</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr"/>
@@ -17426,6 +17608,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17617,6 +17800,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17800,6 +17984,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17991,6 +18176,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18198,6 +18384,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18401,6 +18588,11 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr">
+        <is>
+          <t>4832131</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18616,6 +18808,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18819,6 +19012,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19026,6 +19220,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19233,6 +19428,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19440,6 +19636,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19655,6 +19852,11 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr">
+        <is>
+          <t>8580800</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19870,6 +20072,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20085,6 +20288,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20296,6 +20500,11 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr">
+        <is>
+          <t>4707531</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20491,6 +20700,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20690,6 +20900,11 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr">
+        <is>
+          <t>4611395</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20917,6 +21132,11 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr">
+        <is>
+          <t>3916863</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21132,6 +21352,11 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr">
+        <is>
+          <t>4617759</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21363,6 +21588,11 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr">
+        <is>
+          <t>4614407</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21586,6 +21816,11 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr">
+        <is>
+          <t>4613838</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21805,6 +22040,11 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr">
+        <is>
+          <t>3899370</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22036,6 +22276,11 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr">
+        <is>
+          <t>4613379</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22267,6 +22512,11 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr">
+        <is>
+          <t>4607044</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22498,6 +22748,11 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr">
+        <is>
+          <t>4609055</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22729,6 +22984,11 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr">
+        <is>
+          <t>4611209</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22952,6 +23212,11 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr">
+        <is>
+          <t>4611191</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23175,6 +23440,11 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr">
+        <is>
+          <t>4613606</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23374,6 +23644,11 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>4330552</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23581,6 +23856,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23792,6 +24068,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23999,6 +24276,11 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr">
+        <is>
+          <t>4222004</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24214,6 +24496,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24425,6 +24708,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24632,6 +24916,11 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr">
+        <is>
+          <t>4226871</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24847,6 +25136,11 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr">
+        <is>
+          <t>4227054</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24933,7 +25227,7 @@
       </c>
       <c r="AA115" t="inlineStr">
         <is>
-          <t>Stoeckl, Natalie E/0000-0001-5899-4771; </t>
+          <t>Stoeckl, Natalie E/0000-0001-5899-4771;</t>
         </is>
       </c>
       <c r="AB115" t="inlineStr">
@@ -25062,6 +25356,11 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr">
+        <is>
+          <t>4229473</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25265,6 +25564,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25480,6 +25780,11 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr">
+        <is>
+          <t>4258865</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25679,6 +25984,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25886,6 +26192,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26097,6 +26404,11 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr">
+        <is>
+          <t>49231929</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26308,6 +26620,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26515,6 +26828,11 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr">
+        <is>
+          <t>4258464</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26730,6 +27048,11 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr">
+        <is>
+          <t>4144334</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26941,6 +27264,11 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr">
+        <is>
+          <t>4209320</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27148,6 +27476,11 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr">
+        <is>
+          <t>4330511</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27355,6 +27688,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27570,6 +27904,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27785,6 +28120,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27996,6 +28332,11 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr">
+        <is>
+          <t>4095048</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28203,6 +28544,11 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr">
+        <is>
+          <t>4472574</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28418,6 +28764,11 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr">
+        <is>
+          <t>4036045</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28633,6 +28984,11 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr">
+        <is>
+          <t>4221614</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28848,6 +29204,11 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr">
+        <is>
+          <t>4054123</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29063,6 +29424,11 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr">
+        <is>
+          <t>4000143</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29278,6 +29644,11 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr">
+        <is>
+          <t>4006930</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29485,6 +29856,11 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr">
+        <is>
+          <t>4512194</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29704,6 +30080,11 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr">
+        <is>
+          <t>4004445</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29915,6 +30296,11 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr">
+        <is>
+          <t>64644132</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -30130,6 +30516,11 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr">
+        <is>
+          <t>4884025</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -30333,6 +30724,11 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr">
+        <is>
+          <t>3909419</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -30536,6 +30932,7 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30747,6 +31144,11 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr">
+        <is>
+          <t>23936954</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -30958,6 +31360,7 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -31169,6 +31572,11 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr">
+        <is>
+          <t>3927286</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -31368,6 +31776,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -31583,6 +31992,7 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -31794,6 +32204,7 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -31993,6 +32404,7 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -32204,6 +32616,7 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -32419,6 +32832,7 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -32618,6 +33032,11 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr">
+        <is>
+          <t>3753792</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -32833,6 +33252,11 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr">
+        <is>
+          <t>3813512</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -33044,6 +33468,7 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -33259,6 +33684,11 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr">
+        <is>
+          <t>3885353</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -33474,6 +33904,7 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -33689,6 +34120,11 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr">
+        <is>
+          <t>3722794</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -33896,6 +34332,11 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr">
+        <is>
+          <t>3772206</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -34111,6 +34552,11 @@
         </is>
       </c>
       <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="inlineStr">
+        <is>
+          <t>3998467</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -34318,6 +34764,7 @@
         </is>
       </c>
       <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -34533,6 +34980,7 @@
         </is>
       </c>
       <c r="BQ160" t="inlineStr"/>
+      <c r="BR160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -34748,6 +35196,11 @@
         </is>
       </c>
       <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="inlineStr">
+        <is>
+          <t>3791343</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -34935,6 +35388,7 @@
         </is>
       </c>
       <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -35126,6 +35580,7 @@
         </is>
       </c>
       <c r="BQ163" t="inlineStr"/>
+      <c r="BR163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -35333,6 +35788,11 @@
         </is>
       </c>
       <c r="BQ164" t="inlineStr"/>
+      <c r="BR164" t="inlineStr">
+        <is>
+          <t>4213957</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -35544,6 +36004,7 @@
         </is>
       </c>
       <c r="BQ165" t="inlineStr"/>
+      <c r="BR165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -35743,6 +36204,7 @@
         </is>
       </c>
       <c r="BQ166" t="inlineStr"/>
+      <c r="BR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -35962,6 +36424,7 @@
         </is>
       </c>
       <c r="BQ167" t="inlineStr"/>
+      <c r="BR167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -36173,6 +36636,11 @@
         </is>
       </c>
       <c r="BQ168" t="inlineStr"/>
+      <c r="BR168" t="inlineStr">
+        <is>
+          <t>3839719</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -36388,6 +36856,7 @@
         </is>
       </c>
       <c r="BQ169" t="inlineStr"/>
+      <c r="BR169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -36603,6 +37072,11 @@
         </is>
       </c>
       <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr">
+        <is>
+          <t>3939420</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -36818,6 +37292,7 @@
         </is>
       </c>
       <c r="BQ171" t="inlineStr"/>
+      <c r="BR171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -37037,6 +37512,7 @@
         </is>
       </c>
       <c r="BQ172" t="inlineStr"/>
+      <c r="BR172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -37236,6 +37712,11 @@
         </is>
       </c>
       <c r="BQ173" t="inlineStr"/>
+      <c r="BR173" t="inlineStr">
+        <is>
+          <t>2519048</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -37447,6 +37928,7 @@
         </is>
       </c>
       <c r="BQ174" t="inlineStr"/>
+      <c r="BR174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -37662,6 +38144,7 @@
         </is>
       </c>
       <c r="BQ175" t="inlineStr"/>
+      <c r="BR175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -37869,6 +38352,7 @@
         </is>
       </c>
       <c r="BQ176" t="inlineStr"/>
+      <c r="BR176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -38084,6 +38568,7 @@
         </is>
       </c>
       <c r="BQ177" t="inlineStr"/>
+      <c r="BR177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -38295,6 +38780,7 @@
         </is>
       </c>
       <c r="BQ178" t="inlineStr"/>
+      <c r="BR178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -38510,6 +38996,7 @@
         </is>
       </c>
       <c r="BQ179" t="inlineStr"/>
+      <c r="BR179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -38725,6 +39212,11 @@
         </is>
       </c>
       <c r="BQ180" t="inlineStr"/>
+      <c r="BR180" t="inlineStr">
+        <is>
+          <t>3552817</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -38940,6 +39432,11 @@
         </is>
       </c>
       <c r="BQ181" t="inlineStr"/>
+      <c r="BR181" t="inlineStr">
+        <is>
+          <t>3553850</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -39147,6 +39644,7 @@
         </is>
       </c>
       <c r="BQ182" t="inlineStr"/>
+      <c r="BR182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -39354,6 +39852,7 @@
         </is>
       </c>
       <c r="BQ183" t="inlineStr"/>
+      <c r="BR183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -39569,6 +40068,11 @@
         </is>
       </c>
       <c r="BQ184" t="inlineStr"/>
+      <c r="BR184" t="inlineStr">
+        <is>
+          <t>3537847</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -39776,6 +40280,7 @@
         </is>
       </c>
       <c r="BQ185" t="inlineStr"/>
+      <c r="BR185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -39991,6 +40496,11 @@
         </is>
       </c>
       <c r="BQ186" t="inlineStr"/>
+      <c r="BR186" t="inlineStr">
+        <is>
+          <t>3083092</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -40194,6 +40704,7 @@
         </is>
       </c>
       <c r="BQ187" t="inlineStr"/>
+      <c r="BR187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -40401,6 +40912,11 @@
         </is>
       </c>
       <c r="BQ188" t="inlineStr"/>
+      <c r="BR188" t="inlineStr">
+        <is>
+          <t>3081419</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -40616,6 +41132,7 @@
         </is>
       </c>
       <c r="BQ189" t="inlineStr"/>
+      <c r="BR189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -40815,6 +41332,7 @@
         </is>
       </c>
       <c r="BQ190" t="inlineStr"/>
+      <c r="BR190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -41030,6 +41548,11 @@
         </is>
       </c>
       <c r="BQ191" t="inlineStr"/>
+      <c r="BR191" t="inlineStr">
+        <is>
+          <t>3393955</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -41237,6 +41760,11 @@
         </is>
       </c>
       <c r="BQ192" t="inlineStr"/>
+      <c r="BR192" t="inlineStr">
+        <is>
+          <t>3110895</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -41444,6 +41972,7 @@
         </is>
       </c>
       <c r="BQ193" t="inlineStr"/>
+      <c r="BR193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -41651,6 +42180,11 @@
         </is>
       </c>
       <c r="BQ194" t="inlineStr"/>
+      <c r="BR194" t="inlineStr">
+        <is>
+          <t>5073091</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -41850,6 +42384,11 @@
         </is>
       </c>
       <c r="BQ195" t="inlineStr"/>
+      <c r="BR195" t="inlineStr">
+        <is>
+          <t>64072350</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -42069,6 +42608,11 @@
         </is>
       </c>
       <c r="BQ196" t="inlineStr"/>
+      <c r="BR196" t="inlineStr">
+        <is>
+          <t>4122747</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -42284,6 +42828,7 @@
         </is>
       </c>
       <c r="BQ197" t="inlineStr"/>
+      <c r="BR197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -42499,6 +43044,11 @@
         </is>
       </c>
       <c r="BQ198" t="inlineStr"/>
+      <c r="BR198" t="inlineStr">
+        <is>
+          <t>3041182</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -42698,6 +43248,7 @@
         </is>
       </c>
       <c r="BQ199" t="inlineStr"/>
+      <c r="BR199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -42909,6 +43460,11 @@
         </is>
       </c>
       <c r="BQ200" t="inlineStr"/>
+      <c r="BR200" t="inlineStr">
+        <is>
+          <t>3708235</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -43112,6 +43668,11 @@
         </is>
       </c>
       <c r="BQ201" t="inlineStr"/>
+      <c r="BR201" t="inlineStr">
+        <is>
+          <t>3058923</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -43311,6 +43872,7 @@
         </is>
       </c>
       <c r="BQ202" t="inlineStr"/>
+      <c r="BR202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -43518,6 +44080,11 @@
         </is>
       </c>
       <c r="BQ203" t="inlineStr"/>
+      <c r="BR203" t="inlineStr">
+        <is>
+          <t>4357223</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -43729,6 +44296,11 @@
         </is>
       </c>
       <c r="BQ204" t="inlineStr"/>
+      <c r="BR204" t="inlineStr">
+        <is>
+          <t>3062787</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -43936,6 +44508,7 @@
         </is>
       </c>
       <c r="BQ205" t="inlineStr"/>
+      <c r="BR205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -44147,6 +44720,7 @@
         </is>
       </c>
       <c r="BQ206" t="inlineStr"/>
+      <c r="BR206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -44362,6 +44936,7 @@
         </is>
       </c>
       <c r="BQ207" t="inlineStr"/>
+      <c r="BR207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -44581,6 +45156,7 @@
         </is>
       </c>
       <c r="BQ208" t="inlineStr"/>
+      <c r="BR208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -44788,6 +45364,7 @@
         </is>
       </c>
       <c r="BQ209" t="inlineStr"/>
+      <c r="BR209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -45007,6 +45584,7 @@
         </is>
       </c>
       <c r="BQ210" t="inlineStr"/>
+      <c r="BR210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -45214,6 +45792,7 @@
         </is>
       </c>
       <c r="BQ211" t="inlineStr"/>
+      <c r="BR211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -45421,6 +46000,7 @@
         </is>
       </c>
       <c r="BQ212" t="inlineStr"/>
+      <c r="BR212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -45636,6 +46216,11 @@
         </is>
       </c>
       <c r="BQ213" t="inlineStr"/>
+      <c r="BR213" t="inlineStr">
+        <is>
+          <t>3110828</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -45843,6 +46428,7 @@
         </is>
       </c>
       <c r="BQ214" t="inlineStr"/>
+      <c r="BR214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -46050,6 +46636,7 @@
         </is>
       </c>
       <c r="BQ215" t="inlineStr"/>
+      <c r="BR215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -46253,6 +46840,11 @@
         </is>
       </c>
       <c r="BQ216" t="inlineStr"/>
+      <c r="BR216" t="inlineStr">
+        <is>
+          <t>2973779</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -46468,6 +47060,11 @@
         </is>
       </c>
       <c r="BQ217" t="inlineStr"/>
+      <c r="BR217" t="inlineStr">
+        <is>
+          <t>2976534</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -46675,6 +47272,11 @@
         </is>
       </c>
       <c r="BQ218" t="inlineStr"/>
+      <c r="BR218" t="inlineStr">
+        <is>
+          <t>4538041</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -46890,6 +47492,7 @@
         </is>
       </c>
       <c r="BQ219" t="inlineStr"/>
+      <c r="BR219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -47105,6 +47708,11 @@
         </is>
       </c>
       <c r="BQ220" t="inlineStr"/>
+      <c r="BR220" t="inlineStr">
+        <is>
+          <t>3008611</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -47312,6 +47920,7 @@
         </is>
       </c>
       <c r="BQ221" t="inlineStr"/>
+      <c r="BR221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -47527,6 +48136,11 @@
         </is>
       </c>
       <c r="BQ222" t="inlineStr"/>
+      <c r="BR222" t="inlineStr">
+        <is>
+          <t>4821583</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -47726,6 +48340,7 @@
         </is>
       </c>
       <c r="BQ223" t="inlineStr"/>
+      <c r="BR223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -47941,6 +48556,7 @@
         </is>
       </c>
       <c r="BQ224" t="inlineStr"/>
+      <c r="BR224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -48148,6 +48764,11 @@
         </is>
       </c>
       <c r="BQ225" t="inlineStr"/>
+      <c r="BR225" t="inlineStr">
+        <is>
+          <t>3011673</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -48363,6 +48984,7 @@
         </is>
       </c>
       <c r="BQ226" t="inlineStr"/>
+      <c r="BR226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -48562,6 +49184,7 @@
         </is>
       </c>
       <c r="BQ227" t="inlineStr"/>
+      <c r="BR227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -48769,6 +49392,7 @@
         </is>
       </c>
       <c r="BQ228" t="inlineStr"/>
+      <c r="BR228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -48984,6 +49608,7 @@
         </is>
       </c>
       <c r="BQ229" t="inlineStr"/>
+      <c r="BR229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -49191,6 +49816,11 @@
         </is>
       </c>
       <c r="BQ230" t="inlineStr"/>
+      <c r="BR230" t="inlineStr">
+        <is>
+          <t>6151914</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -49406,6 +50036,7 @@
         </is>
       </c>
       <c r="BQ231" t="inlineStr"/>
+      <c r="BR231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -49605,6 +50236,7 @@
         </is>
       </c>
       <c r="BQ232" t="inlineStr"/>
+      <c r="BR232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -49812,6 +50444,7 @@
         </is>
       </c>
       <c r="BQ233" t="inlineStr"/>
+      <c r="BR233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -50019,6 +50652,11 @@
         </is>
       </c>
       <c r="BQ234" t="inlineStr"/>
+      <c r="BR234" t="inlineStr">
+        <is>
+          <t>2900952</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -50234,6 +50872,11 @@
         </is>
       </c>
       <c r="BQ235" t="inlineStr"/>
+      <c r="BR235" t="inlineStr">
+        <is>
+          <t>2918156</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -50429,6 +51072,11 @@
         </is>
       </c>
       <c r="BQ236" t="inlineStr"/>
+      <c r="BR236" t="inlineStr">
+        <is>
+          <t>2987401</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -50636,6 +51284,11 @@
         </is>
       </c>
       <c r="BQ237" t="inlineStr"/>
+      <c r="BR237" t="inlineStr">
+        <is>
+          <t>4078404</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -50847,6 +51500,11 @@
         </is>
       </c>
       <c r="BQ238" t="inlineStr"/>
+      <c r="BR238" t="inlineStr">
+        <is>
+          <t>3008908</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -51062,6 +51720,11 @@
         </is>
       </c>
       <c r="BQ239" t="inlineStr"/>
+      <c r="BR239" t="inlineStr">
+        <is>
+          <t>3431983</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -51261,6 +51924,7 @@
         </is>
       </c>
       <c r="BQ240" t="inlineStr"/>
+      <c r="BR240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -51468,6 +52132,7 @@
         </is>
       </c>
       <c r="BQ241" t="inlineStr"/>
+      <c r="BR241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -51667,6 +52332,7 @@
         </is>
       </c>
       <c r="BQ242" t="inlineStr"/>
+      <c r="BR242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -51882,6 +52548,11 @@
         </is>
       </c>
       <c r="BQ243" t="inlineStr"/>
+      <c r="BR243" t="inlineStr">
+        <is>
+          <t>4003085</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -52089,6 +52760,7 @@
         </is>
       </c>
       <c r="BQ244" t="inlineStr"/>
+      <c r="BR244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -52300,6 +52972,11 @@
         </is>
       </c>
       <c r="BQ245" t="inlineStr"/>
+      <c r="BR245" t="inlineStr">
+        <is>
+          <t>3565034</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
